--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1718335.451209655</v>
+        <v>1717012.887397718</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948782</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>108.8684905970448</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>6.028341476940659</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>394.6360885293883</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>92.96465700163724</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>401.3906642526342</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1308,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>261.7806548630974</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>245.2379843596716</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>61.01850137521662</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>297.1427106764707</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1821,19 +1821,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>86.5491849825636</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1903,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2004,16 +2004,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>119.5236191444601</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>103.1489750721055</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
         <v>78.8859792091497</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>300.2528666826528</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>48.43743974744536</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.7938350701832</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.4697473695408</v>
+        <v>307.7953077308024</v>
       </c>
       <c r="H26" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
         <v>78.8859792091497</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.234755280439</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.70188050986993</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U28" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>190.1198520010252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.4697473695408</v>
+        <v>256.6554706538655</v>
       </c>
       <c r="H29" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>101.935567804028</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>117.1156673613494</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>173.7190346830451</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>256.6554706538655</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.88432998251123</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3322,7 +3322,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4761865113606</v>
+        <v>27.77593058653722</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.5555146323702</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>116.5613740226374</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>183.4965574034482</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>75.56927668458914</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>187.5348496534429</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>306.0455584304623</v>
+        <v>209.3711187917249</v>
       </c>
       <c r="I41" t="n">
         <v>78.88597920914967</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.234755280439</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.2270503965671</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>145.0042940723129</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
         <v>279.9659758737533</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>214.1145226880365</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.4187119430209</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>175.9287414815032</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>195.2435923969541</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>270.4862460146829</v>
       </c>
       <c r="C2" t="n">
         <v>160.5180736944356</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>680.7074256791724</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1565.07474843536</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1565.07474843536</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1565.07474843536</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1565.07474843536</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1291.189003374882</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>1291.189003374882</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>1689.631969834255</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.286950919918</v>
+        <v>1289.08854107858</v>
       </c>
       <c r="C8" t="n">
-        <v>648.1623602331882</v>
+        <v>1283.004354432254</v>
       </c>
       <c r="D8" t="n">
-        <v>243.6984303262487</v>
+        <v>1282.580828565719</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>868.2406130826157</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>447.2102010363033</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4810,46 +4810,46 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>1295.269316702666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>1295.269316702666</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.9926484891412</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="C10" t="n">
-        <v>489.9926484891412</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>677.6923548831857</v>
+        <v>1306.739078348333</v>
       </c>
       <c r="X10" t="n">
-        <v>677.6923548831857</v>
+        <v>1068.395216208017</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.6923548831857</v>
+        <v>843.6595175967814</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5041,7 +5041,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K11" t="n">
         <v>885.5886702674165</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>639.9151332627582</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>480.4204885856682</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>319.5096734539877</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>154.878547564579</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>154.878547564579</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>827.6148396568026</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5797,7 +5797,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
         <v>1789.888428857139</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5943,19 +5943,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>1007.238484932267</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>768.8946227919506</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>768.8946227919506</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L23" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M23" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="M24" t="n">
-        <v>97.41996410676373</v>
+        <v>963.3815547230743</v>
       </c>
       <c r="N24" t="n">
-        <v>833.069827347225</v>
+        <v>1860.632488341521</v>
       </c>
       <c r="O24" t="n">
-        <v>1558.609758636149</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P24" t="n">
         <v>2137.637783597812</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.9146087838537</v>
+        <v>969.6494255854373</v>
       </c>
       <c r="C25" t="n">
-        <v>256.9146087838537</v>
+        <v>798.5560531471538</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41996410676373</v>
+        <v>639.0614084700637</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676373</v>
+        <v>478.1505933383832</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676373</v>
+        <v>313.5194674489745</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676373</v>
+        <v>146.3466709223651</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676373</v>
+        <v>146.3466709223651</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475706</v>
@@ -6174,25 +6174,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T25" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="U25" t="n">
-        <v>1152.595270934433</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="V25" t="n">
-        <v>878.7095258739553</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="W25" t="n">
-        <v>878.7095258739553</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="X25" t="n">
-        <v>640.3656637336387</v>
+        <v>1382.084830590717</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.6143151778981</v>
+        <v>1157.349131979482</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092806</v>
+        <v>2447.103198462591</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406076</v>
+        <v>2036.978607775861</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499137</v>
+        <v>1632.514677868921</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1218.174462385818</v>
       </c>
       <c r="F26" t="n">
-        <v>665.8048419697211</v>
+        <v>797.1440503395056</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
         <v>177.1027713887331</v>
@@ -6226,19 +6226,19 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732492</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477944</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547875</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.155711445508</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372257</v>
       </c>
       <c r="O26" t="n">
         <v>3926.78508420296</v>
@@ -6253,25 +6253,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505085</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640253</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809206</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757296</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>97.41996410676371</v>
       </c>
       <c r="M27" t="n">
-        <v>97.41996410676371</v>
+        <v>963.3815547230743</v>
       </c>
       <c r="N27" t="n">
-        <v>436.4543165702217</v>
+        <v>1860.632488341521</v>
       </c>
       <c r="O27" t="n">
-        <v>1161.994247859146</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P27" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q27" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.964545620495</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>395.964545620495</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
-        <v>395.964545620495</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E28" t="n">
-        <v>395.964545620495</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F28" t="n">
-        <v>231.3334197310863</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3334197310863</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
         <v>97.41996410676371</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V28" t="n">
-        <v>913.3780722519373</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W28" t="n">
-        <v>634.3084077608116</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X28" t="n">
-        <v>395.964545620495</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.964545620495</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E29" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>436.4543165702217</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>436.4543165702217</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M30" t="n">
-        <v>436.4543165702217</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N30" t="n">
-        <v>436.4543165702217</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O30" t="n">
         <v>1161.994247859146</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.295999242513</v>
+        <v>600.3172589610654</v>
       </c>
       <c r="C31" t="n">
-        <v>258.3307792384443</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384443</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
         <v>116.8792779475706</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1435.389185958427</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1152.595270934433</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7095258739553</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>599.6398613828296</v>
+        <v>788.0169653551097</v>
       </c>
       <c r="X31" t="n">
-        <v>361.295999242513</v>
+        <v>788.0169653551097</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.295999242513</v>
+        <v>788.0169653551097</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1905.639399406076</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G32" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6712,13 +6712,13 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
         <v>4819.791607344924</v>
@@ -6779,22 +6779,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>149.520750915574</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>149.520750915574</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.482341531885</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482341531885</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>1741.022272820809</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
         <v>1741.022272820809</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F34" t="n">
         <v>97.41996410676371</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914593</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003336</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X34" t="n">
-        <v>360.4226627003336</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.6869640890983</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E35" t="n">
         <v>1315.825411515857</v>
@@ -6970,19 +6970,19 @@
         <v>4518.209749210383</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>731.3135030713389</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>1412.097852308888</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.097852308888</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>1412.097852308888</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.1730091899659</v>
+        <v>382.5259027654608</v>
       </c>
       <c r="C37" t="n">
-        <v>217.1730091899659</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="D37" t="n">
-        <v>217.1730091899659</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="E37" t="n">
-        <v>217.1730091899659</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="F37" t="n">
-        <v>217.1730091899659</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676373</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.171987275931</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="V37" t="n">
-        <v>922.2862422154526</v>
+        <v>1004.070027506849</v>
       </c>
       <c r="W37" t="n">
-        <v>643.216577724327</v>
+        <v>725.0003630157237</v>
       </c>
       <c r="X37" t="n">
-        <v>404.8727155840103</v>
+        <v>607.261601376696</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.8727155840103</v>
+        <v>382.5259027654608</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1905.639399406077</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E38" t="n">
         <v>1315.825411515857</v>
@@ -7174,10 +7174,10 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732499</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477959</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547877</v>
@@ -7189,7 +7189,7 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P38" t="n">
         <v>4480.322041270215</v>
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>979.5875245199682</v>
       </c>
       <c r="M39" t="n">
-        <v>118.231407913438</v>
+        <v>979.5875245199682</v>
       </c>
       <c r="N39" t="n">
-        <v>1015.482341531885</v>
+        <v>979.5875245199682</v>
       </c>
       <c r="O39" t="n">
-        <v>1741.022272820809</v>
+        <v>1705.127455808893</v>
       </c>
       <c r="P39" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q39" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.1807777487466</v>
+        <v>173.7525668184699</v>
       </c>
       <c r="C40" t="n">
-        <v>424.0874053104631</v>
+        <v>173.7525668184699</v>
       </c>
       <c r="D40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G40" t="n">
         <v>97.41996410676373</v>
@@ -7332,10 +7332,10 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
         <v>551.4710044025715</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.428692731033</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S40" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="T40" t="n">
-        <v>1435.389185958427</v>
+        <v>1381.211494048538</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.960044894343</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V40" t="n">
-        <v>1245.960044894343</v>
+        <v>824.5318339640662</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.960044894343</v>
+        <v>824.5318339640662</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.616182754026</v>
+        <v>586.1879718237496</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.8804841427909</v>
+        <v>361.4522732125143</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395065</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>388.588749966233</v>
       </c>
       <c r="H41" t="n">
         <v>177.1027713887331</v>
@@ -7423,13 +7423,13 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
         <v>4819.791607344925</v>
@@ -7438,25 +7438,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3425.70033609961</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="C43" t="n">
-        <v>3425.70033609961</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="D43" t="n">
-        <v>3266.20569142252</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="E43" t="n">
-        <v>3266.20569142252</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="F43" t="n">
-        <v>3266.20569142252</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="G43" t="n">
-        <v>3266.20569142252</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>4724.529221426759</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U43" t="n">
-        <v>4441.735306402766</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V43" t="n">
-        <v>4167.849561342287</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W43" t="n">
-        <v>3888.779896851162</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X43" t="n">
-        <v>3650.436034710845</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="Y43" t="n">
-        <v>3425.70033609961</v>
+        <v>410.9686591198559</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I44" t="n">
         <v>97.41996410676373</v>
@@ -7675,25 +7675,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K45" t="n">
-        <v>590.8918437439524</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L45" t="n">
-        <v>1271.676192981502</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="M45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="N45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3688.630471443707</v>
+        <v>753.5499222432264</v>
       </c>
       <c r="C46" t="n">
-        <v>3688.630471443707</v>
+        <v>582.4565498049429</v>
       </c>
       <c r="D46" t="n">
-        <v>3529.135826766617</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766617</v>
+        <v>262.0510899961724</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U46" t="n">
-        <v>4364.957714591686</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V46" t="n">
-        <v>4091.071969531208</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W46" t="n">
-        <v>3913.366170054942</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="X46" t="n">
-        <v>3913.366170054942</v>
+        <v>950.7656721391397</v>
       </c>
       <c r="Y46" t="n">
-        <v>3688.630471443707</v>
+        <v>753.5499222432264</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8227,7 +8227,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8236,10 +8236,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393445</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764446</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8476,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>70.59911775623726</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730677</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,16 +8777,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>175.6243224406076</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>548.7963290415029</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,7 +9497,7 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9722,19 +9722,19 @@
         <v>41.02972279421731</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654513</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M24" t="n">
-        <v>34.34760704978724</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>772.4429102964093</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>315.7539583063248</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q24" t="n">
         <v>44.99626817861589</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158872</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9959,25 +9959,25 @@
         <v>41.02972279421731</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654513</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978724</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>371.8211822388302</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>315.7539583063248</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>383.4886646764982</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654513</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>93.65678017685397</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654513</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>477.9088417729243</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M36" t="n">
-        <v>34.34760704978724</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N36" t="n">
-        <v>29.36224035654935</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458874</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861589</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856358</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421731</v>
+        <v>41.02972279421726</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654513</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>55.36926746056937</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458874</v>
+        <v>473.6416504732956</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861586</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.438861768134</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M42" t="n">
         <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>817.6505689341619</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
         <v>35.95062976461614</v>
@@ -11159,10 +11159,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780089</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.438861768134</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0687818462712</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>671.8876652738671</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
         <v>29.36224035654928</v>
@@ -11393,10 +11393,10 @@
         <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>53.31116889588057</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>87.09287926738129</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23469,7 +23469,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.65670172208848</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.4209809967735</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>173.1299927741088</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>96.67443963873802</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>64.43500081076405</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.69450655493975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>96.67443963873836</v>
       </c>
       <c r="H26" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24612,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>127.7265129225767</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>147.8142767156753</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>67.44687090987263</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>159.1633004848649</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>226.7002559248249</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>147.8142767156753</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1004846480034</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.5010685613433</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>46.94555392897308</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>119.3990494962761</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>226.7002559248241</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>82.33042154572993</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>92.43112622031043</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>96.67443963873743</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.7002559248238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>112.8724405582094</v>
@@ -25839,7 +25839,7 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>91.82073262335828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>21.84590083087693</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248237</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.3502263647112</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>27.24474922816879</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>667660.8099117033</v>
+        <v>667660.8099117032</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>685849.5288368475</v>
+        <v>685849.5288368474</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>685849.5288368474</v>
+        <v>685849.5288368476</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685849.5288368475</v>
+        <v>685849.5288368474</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685849.5288368474</v>
+        <v>685849.5288368475</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685849.5288368474</v>
+        <v>685849.5288368477</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685849.5288368474</v>
+        <v>685849.5288368475</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685849.5288368475</v>
+        <v>685849.5288368476</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973707</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973706</v>
       </c>
       <c r="E2" t="n">
+        <v>434473.0013026407</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434473.0013026409</v>
+      </c>
+      <c r="G2" t="n">
         <v>434473.0013026408</v>
       </c>
-      <c r="F2" t="n">
-        <v>434473.0013026407</v>
-      </c>
-      <c r="G2" t="n">
-        <v>434473.0013026407</v>
-      </c>
       <c r="H2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="I2" t="n">
-        <v>448846.325267134</v>
+        <v>448846.3252671341</v>
       </c>
       <c r="J2" t="n">
+        <v>448846.3252671339</v>
+      </c>
+      <c r="K2" t="n">
         <v>448846.3252671338</v>
       </c>
-      <c r="K2" t="n">
-        <v>448846.3252671339</v>
-      </c>
       <c r="L2" t="n">
-        <v>448846.3252671339</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="M2" t="n">
         <v>448846.3252671339</v>
       </c>
       <c r="N2" t="n">
-        <v>448846.3252671341</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="O2" t="n">
-        <v>448846.3252671339</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="P2" t="n">
         <v>448846.3252671339</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588483</v>
+        <v>45948.62261588476</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>213059.5462795911</v>
       </c>
       <c r="D4" t="n">
-        <v>213059.5462795911</v>
+        <v>213059.546279591</v>
       </c>
       <c r="E4" t="n">
         <v>89101.60277166063</v>
@@ -26450,10 +26450,10 @@
         <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
-        <v>88152.90891079401</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="N4" t="n">
-        <v>88152.90891079398</v>
+        <v>88152.90891079399</v>
       </c>
       <c r="O4" t="n">
         <v>88152.90891079398</v>
@@ -26490,13 +26490,13 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
         <v>74967.83978868563</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35263.05784616819</v>
+        <v>35263.05784616811</v>
       </c>
       <c r="C6" t="n">
-        <v>210218.5677392822</v>
+        <v>210218.5677392821</v>
       </c>
       <c r="D6" t="n">
-        <v>210218.5677392821</v>
+        <v>210218.567739282</v>
       </c>
       <c r="E6" t="n">
-        <v>82376.42538666364</v>
+        <v>82195.84479401441</v>
       </c>
       <c r="F6" t="n">
-        <v>274506.1882861067</v>
+        <v>274325.6076934578</v>
       </c>
       <c r="G6" t="n">
-        <v>274506.1882861067</v>
+        <v>274325.6076934577</v>
       </c>
       <c r="H6" t="n">
-        <v>274506.1882861068</v>
+        <v>274325.6076934576</v>
       </c>
       <c r="I6" t="n">
-        <v>239776.9539517696</v>
+        <v>239644.2844390022</v>
       </c>
       <c r="J6" t="n">
-        <v>149130.7757617593</v>
+        <v>148998.1062489918</v>
       </c>
       <c r="K6" t="n">
-        <v>285725.5765676543</v>
+        <v>285592.9070548867</v>
       </c>
       <c r="L6" t="n">
-        <v>285725.5765676543</v>
+        <v>285592.9070548867</v>
       </c>
       <c r="M6" t="n">
-        <v>125367.1260669715</v>
+        <v>125234.4565542041</v>
       </c>
       <c r="N6" t="n">
-        <v>285725.5765676544</v>
+        <v>285592.9070548867</v>
       </c>
       <c r="O6" t="n">
-        <v>285725.5765676543</v>
+        <v>285592.9070548867</v>
       </c>
       <c r="P6" t="n">
-        <v>285725.5765676543</v>
+        <v>285592.9070548868</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="O3" t="n">
         <v>42.5994067681289</v>
@@ -26810,13 +26810,13 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
         <v>1217.749551334546</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812877</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176167</v>
+        <v>52.20333020176145</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627597</v>
+        <v>643.4826507627596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>297.1548541828178</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>78.39164966441369</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.48287933845626</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>317.232156326635</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>3.250337013461888</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.39332480391181</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.49831298311699</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32703,43 +32703,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R23" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U23" t="n">
         <v>0.01370031172442331</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N24" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q24" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S24" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L25" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
         <v>11.75534121521167</v>
@@ -32885,22 +32885,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S25" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,43 +32940,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R26" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U26" t="n">
         <v>0.01370031172442331</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N27" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q27" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S27" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L28" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
         <v>11.75534121521167</v>
@@ -33122,22 +33122,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S28" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R29" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U29" t="n">
         <v>0.01370031172442331</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N30" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q30" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S30" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L31" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
         <v>11.75534121521167</v>
@@ -33359,22 +33359,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S31" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R32" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U32" t="n">
         <v>0.01370031172442331</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N33" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q33" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S33" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L34" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
         <v>11.75534121521167</v>
@@ -33596,22 +33596,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S34" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163524</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R35" t="n">
         <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U35" t="n">
         <v>0.01370031172442331</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436435</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N36" t="n">
         <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821501</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q36" t="n">
         <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524822</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S36" t="n">
         <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L37" t="n">
         <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
         <v>11.75534121521167</v>
@@ -33833,22 +33833,22 @@
         <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S37" t="n">
         <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552914</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096879</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947879</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275968</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394517</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064917</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351434</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710206</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323038</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202162</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163524</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949133</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753707</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707885</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442331</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106944</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284866</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017084</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436435</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039809</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430392</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863018</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720064</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538379</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821501</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622283</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524822</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745521</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557578</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888615</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875679</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513109</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507705</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471105</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388287</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944226</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676794</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521167</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935846</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035818</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987445</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871555</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008243</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937789</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750376</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34956,10 +34956,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009271</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>121.3646874378038</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36372,7 +36372,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
         <v>559.1282394618715</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>874.7086773902126</v>
       </c>
       <c r="N24" t="n">
-        <v>743.0806699398599</v>
+        <v>906.3140743620672</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635599</v>
+        <v>279.8033285417085</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8767928905686</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853389</v>
       </c>
       <c r="K26" t="n">
         <v>565.3795935096416</v>
@@ -36609,7 +36609,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
         <v>559.1282394618715</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>874.7086773902126</v>
       </c>
       <c r="N27" t="n">
-        <v>342.4589418822808</v>
+        <v>906.3140743620672</v>
       </c>
       <c r="O27" t="n">
-        <v>732.8686174635599</v>
+        <v>279.8033285417085</v>
       </c>
       <c r="P27" t="n">
-        <v>584.8767928905686</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
         <v>559.1282394618715</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>342.4589418822808</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635599</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P30" t="n">
         <v>584.8767928905686</v>
@@ -37083,7 +37083,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
         <v>559.1282394618715</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>52.62705738263666</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
         <v>365.0745974817616</v>
@@ -37320,7 +37320,7 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
         <v>559.1282394618715</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>436.879118978707</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258071</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635599</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L38" t="n">
         <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O38" t="n">
         <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M39" t="n">
-        <v>21.02166041078213</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>732.86861746356</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>436.8791189787069</v>
       </c>
       <c r="Q39" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543273</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906171</v>
+        <v>342.8985515906173</v>
       </c>
       <c r="R41" t="n">
         <v>51.72383635682957</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>788.2883285776127</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N44" t="n">
         <v>791.3461665926759</v>
@@ -38037,7 +38037,7 @@
         <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906173</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
         <v>51.72383635682957</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>295.039059052054</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>635.6682700673221</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
